--- a/Design/Debug Panel/Debug Panel Components.xlsx
+++ b/Design/Debug Panel/Debug Panel Components.xlsx
@@ -446,7 +446,7 @@
   <dimension ref="B1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,7 +729,7 @@
         <v>28</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="E23:F23" si="1">SUM(F2:F20)</f>
+        <f t="shared" ref="F23" si="1">SUM(F2:F20)</f>
         <v>75.849999999999994</v>
       </c>
     </row>
